--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2845.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2845.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.169815402245698</v>
+        <v>1.204509258270264</v>
       </c>
       <c r="B1">
-        <v>2.361097982831347</v>
+        <v>2.018767356872559</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.270934581756592</v>
       </c>
       <c r="D1">
-        <v>2.363470148380773</v>
+        <v>3.015425205230713</v>
       </c>
       <c r="E1">
-        <v>1.23297314315807</v>
+        <v>1.201038718223572</v>
       </c>
     </row>
   </sheetData>
